--- a/edits_list.xlsx
+++ b/edits_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu\Cursor_AI_proj\GIT_HUB\headers\renaming_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B036B8-DB89-434A-9519-8C23CE92B979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA8FF4C-2024-41AD-90D6-8CCDC9B6C8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="200">
   <si>
     <t>List of Edits that need to be Automated</t>
   </si>
@@ -625,6 +625,9 @@
   </si>
   <si>
     <t>GBDTS167</t>
+  </si>
+  <si>
+    <t>generate_command</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -676,13 +679,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -987,18 +1004,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="97" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1023,8 +1044,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1058,7 +1082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1072,7 +1096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1100,7 +1124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1114,7 +1138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1128,7 +1152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1142,7 +1166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1156,7 +1180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1170,7 +1194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1187,7 +1211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1201,7 +1225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1215,7 +1239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1243,9 +1267,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="101.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/edits_list.xlsx
+++ b/edits_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu\Cursor_AI_proj\GIT_HUB\headers\renaming_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA8FF4C-2024-41AD-90D6-8CCDC9B6C8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618AE23B-27C4-4290-A8C8-9A95D4B4F04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WGS_CSBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="284">
   <si>
     <t>List of Edits that need to be Automated</t>
   </si>
@@ -48,6 +48,9 @@
     <t>Cmd status</t>
   </si>
   <si>
+    <t>generate_command</t>
+  </si>
+  <si>
     <t>RULEEM000001~covid~wgs~csbd~00W04--live</t>
   </si>
   <si>
@@ -60,12 +63,18 @@
     <t>Created</t>
   </si>
   <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS01</t>
+  </si>
+  <si>
     <t>RULESUB4000001~Expansion on sub-edit4 --live</t>
   </si>
   <si>
     <t>CSBDTS59</t>
   </si>
   <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS59</t>
+  </si>
+  <si>
     <t>RULEINPCC00001~Inpatient Neonatal and Pediatric Critical Care IPREP-332~wgs~csbd~00W45</t>
   </si>
   <si>
@@ -75,6 +84,9 @@
     <t>CSBDTS_60</t>
   </si>
   <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS60</t>
+  </si>
+  <si>
     <t>RULEOPBS000001~OP-Facility Bundled Services~wgs~csbd~00W15</t>
   </si>
   <si>
@@ -84,6 +96,9 @@
     <t>CSBDTS_61</t>
   </si>
   <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS61</t>
+  </si>
+  <si>
     <t>RULEANES000001~ Anesthesia Billed Time Units~wgs~csbd~00W32</t>
   </si>
   <si>
@@ -93,6 +108,9 @@
     <t>CSBDTS_62</t>
   </si>
   <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS62</t>
+  </si>
+  <si>
     <t>RULEBDLG000004~Bundled Services Logic-4~wgs~csbd~00W15</t>
   </si>
   <si>
@@ -102,6 +120,9 @@
     <t>CSBDTS_63</t>
   </si>
   <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS63</t>
+  </si>
+  <si>
     <t>RULECLIA00001~CLIA Edit~wgs~csbd~L92,L95,L94,L93,L90,L91</t>
   </si>
   <si>
@@ -111,6 +132,9 @@
     <t>CSBDTS_64</t>
   </si>
   <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS64</t>
+  </si>
+  <si>
     <t>RULEJWME000001~Medical Injectable Edits JW Modifier I-352~wgs~csbd~00W59</t>
   </si>
   <si>
@@ -120,6 +144,9 @@
     <t>CSBDTS_65</t>
   </si>
   <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS65</t>
+  </si>
+  <si>
     <t>RULEMFTM000001~Missing Required Finger or Toe Anatomical Modifier IPREP-310~wgs~csbd~00W31</t>
   </si>
   <si>
@@ -129,6 +156,9 @@
     <t>CSBDTS_66</t>
   </si>
   <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS66</t>
+  </si>
+  <si>
     <t>RULENCCIPTP001~NCCI PTP OUTPT FACILITY IPREP-271~wgs~csbd~00W10</t>
   </si>
   <si>
@@ -138,6 +168,9 @@
     <t>CSBDTS_67</t>
   </si>
   <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS67</t>
+  </si>
+  <si>
     <t>RULENDC000001~NDC Validation Edit Expansion IPREP-296~wgs~csbd~00W40</t>
   </si>
   <si>
@@ -147,6 +180,9 @@
     <t>CSBDTS_68</t>
   </si>
   <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS68</t>
+  </si>
+  <si>
     <t>RULERCRO000001~Correct Coding Recovery Room Reimbursement IPREP-241~wgs~csbd~00W34</t>
   </si>
   <si>
@@ -156,6 +192,9 @@
     <t>CSBDTS_70</t>
   </si>
   <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS70</t>
+  </si>
+  <si>
     <t>RULERCTH000001~Revenue Code to HCPCS Alignment Edit IPREP-205~wgs~csbd~00W26</t>
   </si>
   <si>
@@ -165,6 +204,9 @@
     <t>CSBDTS_71</t>
   </si>
   <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS71</t>
+  </si>
+  <si>
     <t>RULEUNAC000001~Unacceptable Principal Diagnosis~wgs~csbd~00W16</t>
   </si>
   <si>
@@ -172,6 +214,36 @@
   </si>
   <si>
     <t>CSBDTS_73</t>
+  </si>
+  <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS73</t>
+  </si>
+  <si>
+    <t>RULEEM0000012 MNP Model~wgs~csbd~W07</t>
+  </si>
+  <si>
+    <t>CSBDTS74</t>
+  </si>
+  <si>
+    <t>CSBDTS_74</t>
+  </si>
+  <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS74</t>
+  </si>
+  <si>
+    <t>RULEPREV000001~ Preventative Medicine and Screening IPREP-362~wgs~csbd~00W28</t>
+  </si>
+  <si>
+    <t>CSBDTS75</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>python main_processor.py --wgs_csbd --CSBDTS75</t>
+  </si>
+  <si>
+    <t>CSBDTS76</t>
   </si>
   <si>
     <t>Note:
@@ -188,85 +260,127 @@
     <t>GBDTS47</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS47</t>
+  </si>
+  <si>
     <t>RULEEM000001~Covid model~GBDTS-FaceGBDTS-GRS~v04--live</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS47</t>
+  </si>
+  <si>
     <t>RULELATE000001~Laterality Policy -Diagnosis to Diagnosis~GBDTS-FaceGBDTS-GRS~v17--live</t>
   </si>
   <si>
     <t>GBDTS48</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS48</t>
+  </si>
+  <si>
     <t>RULELATE000001~Laterality Policy -Diagnosis to Diagnosis~GBDTS-FaceGBDTS-MCR~v17--live</t>
   </si>
   <si>
     <t>GBDTS49</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS49</t>
+  </si>
+  <si>
     <t>PSMEM000001~PSM EdiGBDTS Established PatienGBDTS (EP)~GBDTS-FaceGBDTS-MCR</t>
   </si>
   <si>
     <t>GBDTS50</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS50</t>
+  </si>
+  <si>
     <t>PSMEM000001~PSM EdiGBDTS Established PatienGBDTS (EP)~GBDTS-FaceGBDTS-GRS</t>
   </si>
   <si>
     <t>GBDTS51</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS51</t>
+  </si>
+  <si>
     <t>PSMEM000002~PSM edit for New Patient Visit Type (NP)~GBDTS-FaceGBDTS-MCR~v00--live</t>
   </si>
   <si>
     <t>GBDTS52</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS52</t>
+  </si>
+  <si>
     <t>PSMEM000002~PSM edit for New Patient Visit Type (NP)~GBDTS-FaceGBDTS-GRS~v00--live</t>
   </si>
   <si>
     <t>GBDTS53</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS53</t>
+  </si>
+  <si>
     <t>PSMEM000003~PSM EdiGBDTS for Emergency Department Personnel (ED)~GBDTS-FaceGBDTS-MCR~v00--live</t>
   </si>
   <si>
     <t>GBDTS54</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS54</t>
+  </si>
+  <si>
     <t>PSMEM000003~PSM EdiGBDTS for Emergency Department Personnel (ED)~GBDTS-FaceGBDTS-GRS~v00--live</t>
   </si>
   <si>
     <t>GBDTS55</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS55</t>
+  </si>
+  <si>
     <t>PSMEM000004~PSM EdiGBDTS for Emergency Department Facility (ER)~GBDTS-FaceGBDTS-MCR~v00--live</t>
   </si>
   <si>
     <t>GBDTS56</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS56</t>
+  </si>
+  <si>
     <t>PSMEM000004~PSM EdiGBDTS for Emergency Department Facility (ER)~GBDTS-FaceGBDTS-GRS~v00--live</t>
   </si>
   <si>
     <t>GBDTS57</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS57</t>
+  </si>
+  <si>
     <t>RULEMAN000004~Manifestation Codes~GBDTS-FaceGBDTS-MCR~v14--live</t>
   </si>
   <si>
     <t>GBDTS58</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS58</t>
+  </si>
+  <si>
     <t>RULEUSD00100_Outpt_GRS~Unspecified_DxCodes_Outpt_ GRS~GBDTS-FaceGBDTS-GRS~v17--live</t>
   </si>
   <si>
-    <t>GBDTS59</t>
+    <t>GBDTS168</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS168</t>
   </si>
   <si>
     <t>RULEUSD00100_Outpt_GRS~Unspecified_DxCodes_Outpt_ MCR~GBDTS-FaceGBDTS-GRS~v17--live</t>
   </si>
   <si>
-    <t>GBDTS60</t>
+    <t>python main_processor.py --gbdf_mcr --GBDTS168</t>
   </si>
   <si>
     <t>RULEUSD00100_Prof_GRS~Unspecified_DxCodes_Prof_GRS~GBDTS-FaceGBDTS-GRS~v17--live</t>
@@ -275,22 +389,31 @@
     <t>GBDTS61</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS61</t>
+  </si>
+  <si>
     <t>RULEUSD00100_Prof_MCR~Unspecified_DxCodes_Prof_MCR~GBDTS-FaceGBDTS-MCR~v17--live</t>
   </si>
   <si>
     <t>GBDTS62</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS62</t>
+  </si>
+  <si>
     <t>Ambulance Mileage without Base Transport Paid IPREP 192~shadow~RULEAMBU000001~MCR~v37 - EdiGBDTS - Group9</t>
   </si>
   <si>
-    <t>GBDTS63</t>
+    <t>GBDTS169</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS169</t>
   </si>
   <si>
     <t>Ambulance Mileage without Base Transport Paid IPREP 192~shadow~RULEAMBU000001~GRS~v37 - EdiGBDTS - Group9</t>
   </si>
   <si>
-    <t>GBDTS64</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS169</t>
   </si>
   <si>
     <t>Ambulance Mileage without Base Transport Paid IPREP 192~shadow~RULEAMBU000001~MMP~v37 - EdiGBDTS - Group9</t>
@@ -302,6 +425,9 @@
     <t>GBDTS66</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS66</t>
+  </si>
+  <si>
     <t>RULE00000022~Inaccurate laterality Edit~GBDTS-FaceGBDTS-MCR~v19--live</t>
   </si>
   <si>
@@ -311,42 +437,63 @@
     <t>GBDTS68</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS68</t>
+  </si>
+  <si>
     <t>RULE00000376~Inappropriate Primary Diagnosis~GBDTS-FaceGBDTS-GRS~v16--live</t>
   </si>
   <si>
     <t>GBDTS69</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS69</t>
+  </si>
+  <si>
     <t>RULE00000376~Inappropriate Primary Diagnosis~GBDTS-FaceGBDTS-MCR~v16--live</t>
   </si>
   <si>
     <t>GBDTS70</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS70</t>
+  </si>
+  <si>
     <t>RULEALWA000001~Always Therapy Missing Modifiers~GBDTS-FaceGBDTS-GRS~v31--live</t>
   </si>
   <si>
     <t>GBDTS71</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS71</t>
+  </si>
+  <si>
     <t>RULEALWA000001~Always Therapy Missing Modifiers~GBDTS-FaceGBDTS-MCR~v31--live</t>
   </si>
   <si>
     <t>GBDTS72</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS72</t>
+  </si>
+  <si>
     <t>RULEEXCL000001~Excludes 1 Notes~GBDTS-FaceGBDTS-MMP~v27--live</t>
   </si>
   <si>
     <t>GBDTS73</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS73</t>
+  </si>
+  <si>
     <t>RULEEXCL000001~Excludes 1 Notes~GBDTS-FaceGBDTS-GRS~v27--live</t>
   </si>
   <si>
     <t>GBDTS74</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS74</t>
+  </si>
+  <si>
     <t>RULEEXCL000001~Excludes 1 Notes~GBDTS-FaceGBDTS-MCR~v27--live</t>
   </si>
   <si>
@@ -356,61 +503,85 @@
     <t>GBDTS122</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS122</t>
+  </si>
+  <si>
     <t>RULEANES000001~Anesthesia Billed Time UniGBDTS~GBDTS-FaceGBDTS-MCR~v32</t>
   </si>
   <si>
     <t>GBDTS123</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS123</t>
+  </si>
+  <si>
     <t>RULEANES000001~Anesthesia Billed Time UniGBDTS~GBDTS-FaceGBDTS-GRS~v32</t>
   </si>
   <si>
     <t>GBDTS124</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS124</t>
+  </si>
+  <si>
     <t>RULECLIA00001~CLIA Edit for GBDTS-MCR GBDTS-FaceGBDTS-MCR~r92,r95,r93,r90,r94,r91</t>
   </si>
   <si>
     <t>GBDTS125</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS125</t>
+  </si>
+  <si>
     <t>RULECLIA00001~CLIA Edit for GBDTS-MCR GBDTS-FaceGBDTS-GRS~r92,r95,r93,r90,r94,r91</t>
   </si>
   <si>
     <t>RULEIPVT000001 Immunization Procedure code without Vaccine/Toxoid GBDTS-FaceGBDTS-MCR~v38</t>
   </si>
   <si>
-    <t>GBDTS127</t>
+    <t>GBDTS171</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS171</t>
   </si>
   <si>
     <t>RULEIPVT000001 Immunization Procedure code without Vaccine/Toxoid GBDTS-FaceGBDTS-GRS~v38</t>
   </si>
   <si>
-    <t>GBDTS128</t>
+    <t>GBDTS170</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS170</t>
   </si>
   <si>
     <t>RULEIMMU000001 Immuno Drugs A52474 IPREP-132 GBDTS-FaceGBDTS-MCR~v08</t>
   </si>
   <si>
-    <t>GBDTS129</t>
+    <t>GBDTS172</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS172</t>
   </si>
   <si>
     <t>RULEIMMU000001 Immuno Drugs A52474 IPREP-132 GBDTS-FaceGBDTS-GRS~v08</t>
   </si>
   <si>
-    <t>GBDTS130</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS171</t>
   </si>
   <si>
     <t>RULEKNEE000001 Knee Orthosis A52465 IPREP-132 GBDTS-FaceGBDTS-MCR~v08</t>
   </si>
   <si>
-    <t>GBDTS131</t>
+    <t>GBDTS173</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS173</t>
   </si>
   <si>
     <t>RULEKNEE000001 Knee Orthosis A52465 IPREP-132 GBDTS-FaceGBDTS-GRS~v08</t>
   </si>
   <si>
-    <t>GBDTS132</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS172</t>
   </si>
   <si>
     <t>RULEMAN000004~Manifestation Codes~GBDTS-FaceGBDTS-GRS~v14--live</t>
@@ -419,136 +590,175 @@
     <t>GBDTS133</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS133</t>
+  </si>
+  <si>
     <t>RULEJWME000001 Medical Injectable EdiGBDTS JW Modifier I-352 GBDTS-FaceGBDTS-MCR~v59</t>
   </si>
   <si>
-    <t>GBDTS134</t>
+    <t>GBDTS174</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS174</t>
   </si>
   <si>
     <t>RULEJWME000001 Medical Injectable EdiGBDTS JW Modifier I-352 GBDTS-FaceGBDTS-GRS~v59</t>
   </si>
   <si>
-    <t>GBDTS135</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS173</t>
   </si>
   <si>
     <t>RULEEM0000012 MNP Model GBDTS-FaceGBDTS-MCR~v07</t>
   </si>
   <si>
-    <t>GBDTS136</t>
+    <t>GBDTS175</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS175</t>
   </si>
   <si>
     <t>RULEEM0000012 MNP Model GBDTS-FaceGBDTS-GRS~v07</t>
   </si>
   <si>
-    <t>GBDTS137</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS174</t>
   </si>
   <si>
     <t>RULEEMSD000002 Multiple E&amp;M Same Day (2nd pass) GBDTS-FaceGBDTS-MCR~v09</t>
   </si>
   <si>
-    <t>GBDTS138</t>
+    <t>GBDTS176</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS176</t>
   </si>
   <si>
     <t>RULEEMSD000002 Multiple E&amp;M Same Day (2nd pass) GBDTS-FaceGBDTS-GRS~v09</t>
   </si>
   <si>
-    <t>GBDTS139</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS175</t>
   </si>
   <si>
     <t>RULENDCUOM000001 NDC UOM Validation Edit Expansion IPREP-328 GBDTS-FaceGBDTS-MCR~v41</t>
   </si>
   <si>
-    <t>GBDTS140</t>
+    <t>GBDTS177</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS177</t>
   </si>
   <si>
     <t>RULENDCUOM000001 NDC UOM Validation Edit Expansion IPREP-328 GBDTS-FaceGBDTS-GRS~v41</t>
   </si>
   <si>
-    <t>GBDTS141</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS176</t>
   </si>
   <si>
     <t>RULENDC000001 NDC Validation Edit Expansion IPREP-296 GBDTS-FaceGBDTS-MCR~v40</t>
   </si>
   <si>
-    <t>GBDTS142</t>
+    <t>GBDTS178</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS178</t>
   </si>
   <si>
     <t>RULENDC000001 NDC Validation Edit Expansion IPREP-296 GBDTS-FaceGBDTS-GRS~v40</t>
   </si>
   <si>
-    <t>GBDTS143</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS177</t>
   </si>
   <si>
     <t>RULENEBU000001 Nebulizer A52466 IPREP-132 GBDTS-FaceGBDTS-MCR~v08</t>
   </si>
   <si>
-    <t>GBDTS144</t>
+    <t>GBDTS179</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS179</t>
   </si>
   <si>
     <t>RULENEBU000001 Nebulizer A52466 IPREP-132 GBDTS-FaceGBDTS-GRS~v08</t>
   </si>
   <si>
-    <t>GBDTS145</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS178</t>
   </si>
   <si>
     <t>RULENMP000001 No match of Procedure code GBDTS-FaceGBDTS-MCR~v18</t>
   </si>
   <si>
-    <t>GBDTS146</t>
+    <t>GBDTS180</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS180</t>
   </si>
   <si>
     <t>RULENMP000001 No match of Procedure code GBDTS-FaceGBDTS-GRS~v18</t>
   </si>
   <si>
-    <t>GBDTS147</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS179</t>
   </si>
   <si>
     <t>RULEOSTO000001 Ostomy Supplies A52487 IPREP-132 GBDTS-FaceGBDTS-MCR v08</t>
   </si>
   <si>
-    <t>GBDTS148</t>
+    <t>GBDTS181</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS181</t>
   </si>
   <si>
     <t>RULEOSTO000001 Ostomy Supplies A52487 IPREP-132 GBDTS-FaceGBDTS-GRS v08</t>
   </si>
   <si>
-    <t>GBDTS149</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS180</t>
   </si>
   <si>
     <t>RULETRAC000001 Trach Supply A52492​ IPREP-132 GBDTS-FaceGBDTS-MCR v08</t>
   </si>
   <si>
-    <t>GBDTS150</t>
+    <t>GBDTS182</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS182</t>
   </si>
   <si>
     <t>RULETRAC000001 Trach Supply A52492​ IPREP-132 GBDTS-FaceGBDTS-GRS~v08</t>
   </si>
   <si>
-    <t>GBDTS151</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS181</t>
   </si>
   <si>
     <t>RULERCRO000001 Correct_Coding_Recovery_room GBDTS-FaceGBDTS-MCR~v34</t>
   </si>
   <si>
-    <t>GBDTS152</t>
+    <t>GBDTS183</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS183</t>
   </si>
   <si>
     <t>RULERCRO000001 Correct_Coding_Recovery_room GBDTS-FaceGBDTS-GRS~v34</t>
   </si>
   <si>
-    <t>GBDTS153</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS182</t>
   </si>
   <si>
     <t>RULEIPDXE00001 IPREP-115 Inappropriate Primary Dxs-Expansion _GBDTS_FceGBDTS_MCR~v16</t>
   </si>
   <si>
-    <t>GBDTS154</t>
+    <t>GBDTS184</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS184</t>
   </si>
   <si>
     <t>RULEIPDXE00001 IPREP-115 Inappropriate Primary Dxs-Expansion _GBDTS_FceGBDTS_GRS~v16</t>
   </si>
   <si>
-    <t>GBDTS155</t>
+    <t>GBDTS185</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS185</t>
   </si>
   <si>
     <t>RULEGENE000001~GeneticsTesting~GBDTS-FaceGBDTS-MCR~v25--live</t>
@@ -557,34 +767,43 @@
     <t>GBDTS156</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS156</t>
+  </si>
+  <si>
     <t>RULEIPDXH00001 Inappropriate_Primary_DX_PROF_HEADER_GBDTS-FaceGBDTS-GRS~v16</t>
   </si>
   <si>
-    <t>GBDTS157</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS183</t>
   </si>
   <si>
     <t>RULERCWP000001-Revenue Code without Procedure~GRS~v06</t>
   </si>
   <si>
-    <t>GBDTS158</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS184</t>
   </si>
   <si>
     <t>RULERCWP000001-Revenue Code without Procedure~MCR~v06</t>
   </si>
   <si>
-    <t>GBDTS159</t>
+    <t>GBDTS186</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS186</t>
   </si>
   <si>
     <t>RULEPMAM000001 - PRocedures missing  Anatomical Modifier~ GRS~v31</t>
   </si>
   <si>
-    <t>GBDTS160</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS185</t>
   </si>
   <si>
     <t>RULEPMAM000001 - PRocedures missing  Anatomical Modifier~ MCR~v31</t>
   </si>
   <si>
-    <t>GBDTS161</t>
+    <t>GBDTS187</t>
+  </si>
+  <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS187</t>
   </si>
   <si>
     <t xml:space="preserve">PSMEM000003_algo~PSM EdiGBDTS for Emergency 
@@ -595,6 +814,9 @@
     <t>GBDTS162</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS162</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSMEM000003_algo~PSM EdiGBDTS for Emergency 
 Department Personnel New Algo~GRS~v00
 </t>
@@ -603,31 +825,61 @@
     <t>GBDTS163</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS163</t>
+  </si>
+  <si>
     <t>PSMEM000004_algo~PSM EdiGBDTS for Emergency Department Facility New Algo~MCR~v00</t>
   </si>
   <si>
     <t>GBDTS164</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS164</t>
+  </si>
+  <si>
     <t>PSMEM000004_algo~PSM EdiGBDTS for Emergency Department Facility New Algo~GRS~v00</t>
   </si>
   <si>
     <t>GBDTS165</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_grs --GBDTS165</t>
+  </si>
+  <si>
     <t>RULEEM000002_refdb~Sick Well Unbundle~MCR~v05</t>
   </si>
   <si>
     <t>GBDTS166</t>
   </si>
   <si>
+    <t>python main_processor.py --gbdf_mcr --GBDTS166</t>
+  </si>
+  <si>
     <t>RULEEM000002_refdb~Sick Well Unbundle~GRS~v05</t>
   </si>
   <si>
     <t>GBDTS167</t>
   </si>
   <si>
-    <t>generate_command</t>
+    <t>python main_processor.py --gbdf_grs --GBDTS167</t>
+  </si>
+  <si>
+    <t>RULEPREV00001 Preventative Medicine and Screening IPREP-362~wgs~csbd~00W28</t>
+  </si>
+  <si>
+    <t>NYKTS149</t>
+  </si>
+  <si>
+    <t>python main_processor.py --wgs_nyk --NYKTS149</t>
+  </si>
+  <si>
+    <t>RULEINPCC00001~Inpatient Neonatal and Pediatric Critical Care IPREP-332~wgs~nyk~00W45</t>
+  </si>
+  <si>
+    <t>NYKTS150</t>
+  </si>
+  <si>
+    <t>python main_processor.py --wgs_nyk --NYKTS150</t>
   </si>
 </sst>
 </file>
@@ -656,7 +908,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -679,27 +931,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1004,20 +1242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="97" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1044,218 +1273,314 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>199</v>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1265,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,9 +1601,9 @@
     <col min="1" max="1" width="101.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1301,841 +1626,1072 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="H37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="H38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="H39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="H40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="H42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="H43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="H44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="H45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="H46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="H47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="H49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="H50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="H51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="H52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="H53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="H54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="H55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="H59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="H60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="H62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="H63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="H64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="H67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I67" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I69" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I71" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="H72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I72" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="H73" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I73" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="H74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I74" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I75" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="B76" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="H76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="H77" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I77" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2145,13 +2701,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2175,6 +2737,46 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/edits_list.xlsx
+++ b/edits_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu\Cursor_AI_proj\GIT_HUB\headers\renaming_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618AE23B-27C4-4290-A8C8-9A95D4B4F04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658706C7-26C2-4939-8A5E-21AD44C0C241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="234">
   <si>
     <t>List of Edits that need to be Automated</t>
   </si>
@@ -260,163 +260,94 @@
     <t>GBDTS47</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS47</t>
-  </si>
-  <si>
     <t>RULEEM000001~Covid model~GBDTS-FaceGBDTS-GRS~v04--live</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS47</t>
-  </si>
-  <si>
     <t>RULELATE000001~Laterality Policy -Diagnosis to Diagnosis~GBDTS-FaceGBDTS-GRS~v17--live</t>
   </si>
   <si>
     <t>GBDTS48</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS48</t>
-  </si>
-  <si>
     <t>RULELATE000001~Laterality Policy -Diagnosis to Diagnosis~GBDTS-FaceGBDTS-MCR~v17--live</t>
   </si>
   <si>
     <t>GBDTS49</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS49</t>
-  </si>
-  <si>
     <t>PSMEM000001~PSM EdiGBDTS Established PatienGBDTS (EP)~GBDTS-FaceGBDTS-MCR</t>
   </si>
   <si>
     <t>GBDTS50</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS50</t>
-  </si>
-  <si>
     <t>PSMEM000001~PSM EdiGBDTS Established PatienGBDTS (EP)~GBDTS-FaceGBDTS-GRS</t>
   </si>
   <si>
     <t>GBDTS51</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS51</t>
-  </si>
-  <si>
     <t>PSMEM000002~PSM edit for New Patient Visit Type (NP)~GBDTS-FaceGBDTS-MCR~v00--live</t>
   </si>
   <si>
     <t>GBDTS52</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS52</t>
-  </si>
-  <si>
     <t>PSMEM000002~PSM edit for New Patient Visit Type (NP)~GBDTS-FaceGBDTS-GRS~v00--live</t>
   </si>
   <si>
     <t>GBDTS53</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS53</t>
-  </si>
-  <si>
     <t>PSMEM000003~PSM EdiGBDTS for Emergency Department Personnel (ED)~GBDTS-FaceGBDTS-MCR~v00--live</t>
   </si>
   <si>
     <t>GBDTS54</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS54</t>
-  </si>
-  <si>
     <t>PSMEM000003~PSM EdiGBDTS for Emergency Department Personnel (ED)~GBDTS-FaceGBDTS-GRS~v00--live</t>
   </si>
   <si>
     <t>GBDTS55</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS55</t>
-  </si>
-  <si>
     <t>PSMEM000004~PSM EdiGBDTS for Emergency Department Facility (ER)~GBDTS-FaceGBDTS-MCR~v00--live</t>
   </si>
   <si>
     <t>GBDTS56</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS56</t>
-  </si>
-  <si>
     <t>PSMEM000004~PSM EdiGBDTS for Emergency Department Facility (ER)~GBDTS-FaceGBDTS-GRS~v00--live</t>
   </si>
   <si>
     <t>GBDTS57</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS57</t>
-  </si>
-  <si>
     <t>RULEMAN000004~Manifestation Codes~GBDTS-FaceGBDTS-MCR~v14--live</t>
   </si>
   <si>
     <t>GBDTS58</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS58</t>
-  </si>
-  <si>
     <t>RULEUSD00100_Outpt_GRS~Unspecified_DxCodes_Outpt_ GRS~GBDTS-FaceGBDTS-GRS~v17--live</t>
   </si>
   <si>
-    <t>GBDTS168</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS168</t>
+    <t>GBDTS63</t>
   </si>
   <si>
     <t>RULEUSD00100_Outpt_GRS~Unspecified_DxCodes_Outpt_ MCR~GBDTS-FaceGBDTS-GRS~v17--live</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS168</t>
-  </si>
-  <si>
     <t>RULEUSD00100_Prof_GRS~Unspecified_DxCodes_Prof_GRS~GBDTS-FaceGBDTS-GRS~v17--live</t>
   </si>
   <si>
     <t>GBDTS61</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS61</t>
-  </si>
-  <si>
     <t>RULEUSD00100_Prof_MCR~Unspecified_DxCodes_Prof_MCR~GBDTS-FaceGBDTS-MCR~v17--live</t>
   </si>
   <si>
-    <t>GBDTS62</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS62</t>
-  </si>
-  <si>
-    <t>Ambulance Mileage without Base Transport Paid IPREP 192~shadow~RULEAMBU000001~MCR~v37 - EdiGBDTS - Group9</t>
-  </si>
-  <si>
-    <t>GBDTS169</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS169</t>
-  </si>
-  <si>
-    <t>Ambulance Mileage without Base Transport Paid IPREP 192~shadow~RULEAMBU000001~GRS~v37 - EdiGBDTS - Group9</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS169</t>
-  </si>
-  <si>
-    <t>Ambulance Mileage without Base Transport Paid IPREP 192~shadow~RULEAMBU000001~MMP~v37 - EdiGBDTS - Group9</t>
+    <t>GBDTS64</t>
   </si>
   <si>
     <t>RULE00000022~Inaccurate laterality Edit~GBDTS-FaceGBDTS-MMP~v19--live</t>
@@ -425,9 +356,6 @@
     <t>GBDTS66</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS66</t>
-  </si>
-  <si>
     <t>RULE00000022~Inaccurate laterality Edit~GBDTS-FaceGBDTS-MCR~v19--live</t>
   </si>
   <si>
@@ -437,63 +365,42 @@
     <t>GBDTS68</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS68</t>
-  </si>
-  <si>
     <t>RULE00000376~Inappropriate Primary Diagnosis~GBDTS-FaceGBDTS-GRS~v16--live</t>
   </si>
   <si>
     <t>GBDTS69</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS69</t>
-  </si>
-  <si>
     <t>RULE00000376~Inappropriate Primary Diagnosis~GBDTS-FaceGBDTS-MCR~v16--live</t>
   </si>
   <si>
     <t>GBDTS70</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS70</t>
-  </si>
-  <si>
     <t>RULEALWA000001~Always Therapy Missing Modifiers~GBDTS-FaceGBDTS-GRS~v31--live</t>
   </si>
   <si>
     <t>GBDTS71</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS71</t>
-  </si>
-  <si>
     <t>RULEALWA000001~Always Therapy Missing Modifiers~GBDTS-FaceGBDTS-MCR~v31--live</t>
   </si>
   <si>
     <t>GBDTS72</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS72</t>
-  </si>
-  <si>
     <t>RULEEXCL000001~Excludes 1 Notes~GBDTS-FaceGBDTS-MMP~v27--live</t>
   </si>
   <si>
     <t>GBDTS73</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS73</t>
-  </si>
-  <si>
     <t>RULEEXCL000001~Excludes 1 Notes~GBDTS-FaceGBDTS-GRS~v27--live</t>
   </si>
   <si>
     <t>GBDTS74</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS74</t>
-  </si>
-  <si>
     <t>RULEEXCL000001~Excludes 1 Notes~GBDTS-FaceGBDTS-MCR~v27--live</t>
   </si>
   <si>
@@ -503,307 +410,130 @@
     <t>GBDTS122</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS122</t>
-  </si>
-  <si>
     <t>RULEANES000001~Anesthesia Billed Time UniGBDTS~GBDTS-FaceGBDTS-MCR~v32</t>
   </si>
   <si>
-    <t>GBDTS123</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS123</t>
-  </si>
-  <si>
     <t>RULEANES000001~Anesthesia Billed Time UniGBDTS~GBDTS-FaceGBDTS-GRS~v32</t>
   </si>
   <si>
-    <t>GBDTS124</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS124</t>
-  </si>
-  <si>
     <t>RULECLIA00001~CLIA Edit for GBDTS-MCR GBDTS-FaceGBDTS-MCR~r92,r95,r93,r90,r94,r91</t>
   </si>
   <si>
-    <t>GBDTS125</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS125</t>
-  </si>
-  <si>
     <t>RULECLIA00001~CLIA Edit for GBDTS-MCR GBDTS-FaceGBDTS-GRS~r92,r95,r93,r90,r94,r91</t>
   </si>
   <si>
+    <t>Ambulance Mileage without Base Transport Paid IPREP 192~shadow~RULEAMBU000001~MCR~v37</t>
+  </si>
+  <si>
+    <t>Ambulance Mileage without Base Transport Paid IPREP 192~shadow~RULEAMBU000001~GRS~v37</t>
+  </si>
+  <si>
+    <t>Ambulance Mileage without Base Transport Paid IPREP 192~shadow~RULEAMBU000001~MMP~v37</t>
+  </si>
+  <si>
     <t>RULEIPVT000001 Immunization Procedure code without Vaccine/Toxoid GBDTS-FaceGBDTS-MCR~v38</t>
   </si>
   <si>
-    <t>GBDTS171</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS171</t>
-  </si>
-  <si>
     <t>RULEIPVT000001 Immunization Procedure code without Vaccine/Toxoid GBDTS-FaceGBDTS-GRS~v38</t>
   </si>
   <si>
-    <t>GBDTS170</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS170</t>
-  </si>
-  <si>
     <t>RULEIMMU000001 Immuno Drugs A52474 IPREP-132 GBDTS-FaceGBDTS-MCR~v08</t>
   </si>
   <si>
-    <t>GBDTS172</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS172</t>
-  </si>
-  <si>
     <t>RULEIMMU000001 Immuno Drugs A52474 IPREP-132 GBDTS-FaceGBDTS-GRS~v08</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS171</t>
-  </si>
-  <si>
     <t>RULEKNEE000001 Knee Orthosis A52465 IPREP-132 GBDTS-FaceGBDTS-MCR~v08</t>
   </si>
   <si>
-    <t>GBDTS173</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS173</t>
-  </si>
-  <si>
     <t>RULEKNEE000001 Knee Orthosis A52465 IPREP-132 GBDTS-FaceGBDTS-GRS~v08</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS172</t>
-  </si>
-  <si>
     <t>RULEMAN000004~Manifestation Codes~GBDTS-FaceGBDTS-GRS~v14--live</t>
   </si>
   <si>
-    <t>GBDTS133</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS133</t>
-  </si>
-  <si>
     <t>RULEJWME000001 Medical Injectable EdiGBDTS JW Modifier I-352 GBDTS-FaceGBDTS-MCR~v59</t>
   </si>
   <si>
-    <t>GBDTS174</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS174</t>
-  </si>
-  <si>
     <t>RULEJWME000001 Medical Injectable EdiGBDTS JW Modifier I-352 GBDTS-FaceGBDTS-GRS~v59</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS173</t>
-  </si>
-  <si>
     <t>RULEEM0000012 MNP Model GBDTS-FaceGBDTS-MCR~v07</t>
   </si>
   <si>
-    <t>GBDTS175</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS175</t>
-  </si>
-  <si>
     <t>RULEEM0000012 MNP Model GBDTS-FaceGBDTS-GRS~v07</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS174</t>
-  </si>
-  <si>
     <t>RULEEMSD000002 Multiple E&amp;M Same Day (2nd pass) GBDTS-FaceGBDTS-MCR~v09</t>
   </si>
   <si>
-    <t>GBDTS176</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS176</t>
-  </si>
-  <si>
     <t>RULEEMSD000002 Multiple E&amp;M Same Day (2nd pass) GBDTS-FaceGBDTS-GRS~v09</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS175</t>
-  </si>
-  <si>
     <t>RULENDCUOM000001 NDC UOM Validation Edit Expansion IPREP-328 GBDTS-FaceGBDTS-MCR~v41</t>
   </si>
   <si>
-    <t>GBDTS177</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS177</t>
-  </si>
-  <si>
     <t>RULENDCUOM000001 NDC UOM Validation Edit Expansion IPREP-328 GBDTS-FaceGBDTS-GRS~v41</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS176</t>
-  </si>
-  <si>
     <t>RULENDC000001 NDC Validation Edit Expansion IPREP-296 GBDTS-FaceGBDTS-MCR~v40</t>
   </si>
   <si>
-    <t>GBDTS178</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS178</t>
-  </si>
-  <si>
     <t>RULENDC000001 NDC Validation Edit Expansion IPREP-296 GBDTS-FaceGBDTS-GRS~v40</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS177</t>
-  </si>
-  <si>
     <t>RULENEBU000001 Nebulizer A52466 IPREP-132 GBDTS-FaceGBDTS-MCR~v08</t>
   </si>
   <si>
-    <t>GBDTS179</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS179</t>
-  </si>
-  <si>
     <t>RULENEBU000001 Nebulizer A52466 IPREP-132 GBDTS-FaceGBDTS-GRS~v08</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS178</t>
-  </si>
-  <si>
     <t>RULENMP000001 No match of Procedure code GBDTS-FaceGBDTS-MCR~v18</t>
   </si>
   <si>
-    <t>GBDTS180</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS180</t>
-  </si>
-  <si>
     <t>RULENMP000001 No match of Procedure code GBDTS-FaceGBDTS-GRS~v18</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS179</t>
-  </si>
-  <si>
     <t>RULEOSTO000001 Ostomy Supplies A52487 IPREP-132 GBDTS-FaceGBDTS-MCR v08</t>
   </si>
   <si>
-    <t>GBDTS181</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS181</t>
-  </si>
-  <si>
     <t>RULEOSTO000001 Ostomy Supplies A52487 IPREP-132 GBDTS-FaceGBDTS-GRS v08</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS180</t>
-  </si>
-  <si>
     <t>RULETRAC000001 Trach Supply A52492​ IPREP-132 GBDTS-FaceGBDTS-MCR v08</t>
   </si>
   <si>
-    <t>GBDTS182</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS182</t>
-  </si>
-  <si>
     <t>RULETRAC000001 Trach Supply A52492​ IPREP-132 GBDTS-FaceGBDTS-GRS~v08</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS181</t>
-  </si>
-  <si>
     <t>RULERCRO000001 Correct_Coding_Recovery_room GBDTS-FaceGBDTS-MCR~v34</t>
   </si>
   <si>
-    <t>GBDTS183</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS183</t>
-  </si>
-  <si>
     <t>RULERCRO000001 Correct_Coding_Recovery_room GBDTS-FaceGBDTS-GRS~v34</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS182</t>
-  </si>
-  <si>
     <t>RULEIPDXE00001 IPREP-115 Inappropriate Primary Dxs-Expansion _GBDTS_FceGBDTS_MCR~v16</t>
   </si>
   <si>
-    <t>GBDTS184</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS184</t>
-  </si>
-  <si>
     <t>RULEIPDXE00001 IPREP-115 Inappropriate Primary Dxs-Expansion _GBDTS_FceGBDTS_GRS~v16</t>
   </si>
   <si>
-    <t>GBDTS185</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS185</t>
-  </si>
-  <si>
     <t>RULEGENE000001~GeneticsTesting~GBDTS-FaceGBDTS-MCR~v25--live</t>
   </si>
   <si>
-    <t>GBDTS156</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS156</t>
-  </si>
-  <si>
     <t>RULEIPDXH00001 Inappropriate_Primary_DX_PROF_HEADER_GBDTS-FaceGBDTS-GRS~v16</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS183</t>
-  </si>
-  <si>
     <t>RULERCWP000001-Revenue Code without Procedure~GRS~v06</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS184</t>
-  </si>
-  <si>
     <t>RULERCWP000001-Revenue Code without Procedure~MCR~v06</t>
   </si>
   <si>
-    <t>GBDTS186</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS186</t>
-  </si>
-  <si>
     <t>RULEPMAM000001 - PRocedures missing  Anatomical Modifier~ GRS~v31</t>
   </si>
   <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS185</t>
-  </si>
-  <si>
     <t>RULEPMAM000001 - PRocedures missing  Anatomical Modifier~ MCR~v31</t>
-  </si>
-  <si>
-    <t>GBDTS187</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS187</t>
   </si>
   <si>
     <t xml:space="preserve">PSMEM000003_algo~PSM EdiGBDTS for Emergency 
@@ -811,59 +541,23 @@
 </t>
   </si>
   <si>
-    <t>GBDTS162</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS162</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSMEM000003_algo~PSM EdiGBDTS for Emergency 
 Department Personnel New Algo~GRS~v00
 </t>
   </si>
   <si>
-    <t>GBDTS163</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS163</t>
-  </si>
-  <si>
     <t>PSMEM000004_algo~PSM EdiGBDTS for Emergency Department Facility New Algo~MCR~v00</t>
   </si>
   <si>
-    <t>GBDTS164</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS164</t>
-  </si>
-  <si>
     <t>PSMEM000004_algo~PSM EdiGBDTS for Emergency Department Facility New Algo~GRS~v00</t>
   </si>
   <si>
-    <t>GBDTS165</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS165</t>
-  </si>
-  <si>
     <t>RULEEM000002_refdb~Sick Well Unbundle~MCR~v05</t>
   </si>
   <si>
-    <t>GBDTS166</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_mcr --GBDTS166</t>
-  </si>
-  <si>
     <t>RULEEM000002_refdb~Sick Well Unbundle~GRS~v05</t>
   </si>
   <si>
-    <t>GBDTS167</t>
-  </si>
-  <si>
-    <t>python main_processor.py --gbdf_grs --GBDTS167</t>
-  </si>
-  <si>
     <t>RULEPREV00001 Preventative Medicine and Screening IPREP-362~wgs~csbd~00W28</t>
   </si>
   <si>
@@ -880,13 +574,169 @@
   </si>
   <si>
     <t>python main_processor.py --wgs_nyk --NYKTS150</t>
+  </si>
+  <si>
+    <t>GBDTS59</t>
+  </si>
+  <si>
+    <t>GBDTS60</t>
+  </si>
+  <si>
+    <t>GBDTS62</t>
+  </si>
+  <si>
+    <t>GBDTS65</t>
+  </si>
+  <si>
+    <t>GBDTS67</t>
+  </si>
+  <si>
+    <t>GBDTS75</t>
+  </si>
+  <si>
+    <t>GBDTS76</t>
+  </si>
+  <si>
+    <t>GBDTS77</t>
+  </si>
+  <si>
+    <t>GBDTS78</t>
+  </si>
+  <si>
+    <t>GBDTS79</t>
+  </si>
+  <si>
+    <t>GBDTS80</t>
+  </si>
+  <si>
+    <t>GBDTS81</t>
+  </si>
+  <si>
+    <t>GBDTS82</t>
+  </si>
+  <si>
+    <t>GBDTS83</t>
+  </si>
+  <si>
+    <t>GBDTS84</t>
+  </si>
+  <si>
+    <t>GBDTS85</t>
+  </si>
+  <si>
+    <t>GBDTS86</t>
+  </si>
+  <si>
+    <t>GBDTS87</t>
+  </si>
+  <si>
+    <t>GBDTS88</t>
+  </si>
+  <si>
+    <t>GBDTS89</t>
+  </si>
+  <si>
+    <t>GBDTS90</t>
+  </si>
+  <si>
+    <t>GBDTS91</t>
+  </si>
+  <si>
+    <t>GBDTS92</t>
+  </si>
+  <si>
+    <t>GBDTS93</t>
+  </si>
+  <si>
+    <t>GBDTS94</t>
+  </si>
+  <si>
+    <t>GBDTS95</t>
+  </si>
+  <si>
+    <t>GBDTS96</t>
+  </si>
+  <si>
+    <t>GBDTS97</t>
+  </si>
+  <si>
+    <t>GBDTS98</t>
+  </si>
+  <si>
+    <t>GBDTS99</t>
+  </si>
+  <si>
+    <t>GBDTS100</t>
+  </si>
+  <si>
+    <t>GBDTS101</t>
+  </si>
+  <si>
+    <t>GBDTS102</t>
+  </si>
+  <si>
+    <t>GBDTS103</t>
+  </si>
+  <si>
+    <t>GBDTS104</t>
+  </si>
+  <si>
+    <t>GBDTS105</t>
+  </si>
+  <si>
+    <t>GBDTS106</t>
+  </si>
+  <si>
+    <t>GBDTS107</t>
+  </si>
+  <si>
+    <t>GBDTS108</t>
+  </si>
+  <si>
+    <t>GBDTS109</t>
+  </si>
+  <si>
+    <t>GBDTS110</t>
+  </si>
+  <si>
+    <t>GBDTS111</t>
+  </si>
+  <si>
+    <t>GBDTS112</t>
+  </si>
+  <si>
+    <t>GBDTS113</t>
+  </si>
+  <si>
+    <t>GBDTS114</t>
+  </si>
+  <si>
+    <t>GBDTS115</t>
+  </si>
+  <si>
+    <t>GBDTS116</t>
+  </si>
+  <si>
+    <t>GBDTS117</t>
+  </si>
+  <si>
+    <t>GBDTS118</t>
+  </si>
+  <si>
+    <t>GBDTS119</t>
+  </si>
+  <si>
+    <t>GBDTS120</t>
+  </si>
+  <si>
+    <t>GBDTS121</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,6 +748,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1242,11 +1098,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1578,8 +1439,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1592,13 +1453,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="101.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1637,1064 +1499,609 @@
       <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
         <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>117</v>
       </c>
-      <c r="B16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
         <v>120</v>
       </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="B18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" t="s">
-        <v>145</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" t="s">
-        <v>151</v>
-      </c>
-      <c r="H31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" t="s">
-        <v>164</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" t="s">
-        <v>167</v>
-      </c>
-      <c r="H35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" t="s">
-        <v>167</v>
-      </c>
-      <c r="H36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" t="s">
-        <v>174</v>
-      </c>
-      <c r="H38" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" t="s">
-        <v>177</v>
-      </c>
-      <c r="H39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" t="s">
-        <v>171</v>
-      </c>
-      <c r="H40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>181</v>
-      </c>
-      <c r="B41" t="s">
-        <v>182</v>
-      </c>
-      <c r="H41" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" t="s">
-        <v>177</v>
-      </c>
-      <c r="H42" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" t="s">
-        <v>187</v>
-      </c>
-      <c r="H43" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" t="s">
-        <v>190</v>
-      </c>
-      <c r="H44" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>192</v>
-      </c>
-      <c r="B45" t="s">
-        <v>182</v>
-      </c>
-      <c r="H45" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>194</v>
-      </c>
-      <c r="B46" t="s">
-        <v>195</v>
-      </c>
-      <c r="H46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" t="s">
-        <v>190</v>
-      </c>
-      <c r="H47" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>199</v>
-      </c>
-      <c r="B48" t="s">
-        <v>200</v>
-      </c>
-      <c r="H48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>202</v>
-      </c>
-      <c r="B49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H49" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>204</v>
-      </c>
-      <c r="B50" t="s">
-        <v>205</v>
-      </c>
-      <c r="H50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" t="s">
-        <v>200</v>
-      </c>
-      <c r="H51" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>209</v>
-      </c>
-      <c r="B52" t="s">
-        <v>210</v>
-      </c>
-      <c r="H52" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>212</v>
-      </c>
-      <c r="B53" t="s">
-        <v>205</v>
-      </c>
-      <c r="H53" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>214</v>
-      </c>
-      <c r="B54" t="s">
-        <v>215</v>
-      </c>
-      <c r="H54" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>217</v>
-      </c>
-      <c r="B55" t="s">
-        <v>210</v>
-      </c>
-      <c r="H55" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>219</v>
-      </c>
-      <c r="B56" t="s">
-        <v>220</v>
-      </c>
-      <c r="H56" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>222</v>
-      </c>
-      <c r="B57" t="s">
-        <v>215</v>
-      </c>
-      <c r="H57" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>224</v>
-      </c>
-      <c r="B58" t="s">
-        <v>225</v>
-      </c>
-      <c r="H58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>227</v>
-      </c>
-      <c r="B59" t="s">
-        <v>220</v>
-      </c>
-      <c r="H59" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>229</v>
-      </c>
-      <c r="B60" t="s">
-        <v>230</v>
-      </c>
-      <c r="H60" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>232</v>
-      </c>
-      <c r="B61" t="s">
-        <v>225</v>
-      </c>
-      <c r="H61" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>234</v>
-      </c>
-      <c r="B62" t="s">
-        <v>235</v>
-      </c>
-      <c r="H62" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>237</v>
-      </c>
-      <c r="B63" t="s">
-        <v>230</v>
-      </c>
-      <c r="H63" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>239</v>
-      </c>
-      <c r="B64" t="s">
-        <v>240</v>
-      </c>
-      <c r="H64" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>242</v>
-      </c>
-      <c r="B65" t="s">
-        <v>243</v>
-      </c>
-      <c r="H65" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>245</v>
-      </c>
-      <c r="B66" t="s">
-        <v>246</v>
-      </c>
-      <c r="H66" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>248</v>
-      </c>
-      <c r="B67" t="s">
-        <v>235</v>
-      </c>
-      <c r="H67" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68" t="s">
-        <v>240</v>
-      </c>
-      <c r="H68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>252</v>
-      </c>
-      <c r="B69" t="s">
-        <v>253</v>
-      </c>
-      <c r="H69" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>255</v>
-      </c>
-      <c r="B70" t="s">
-        <v>243</v>
-      </c>
-      <c r="H70" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>257</v>
-      </c>
-      <c r="B71" t="s">
-        <v>258</v>
-      </c>
-      <c r="H71" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>260</v>
-      </c>
-      <c r="B72" t="s">
-        <v>261</v>
-      </c>
-      <c r="H72" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>263</v>
-      </c>
-      <c r="B73" t="s">
-        <v>264</v>
-      </c>
-      <c r="H73" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>266</v>
-      </c>
-      <c r="B74" t="s">
-        <v>267</v>
-      </c>
-      <c r="H74" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>269</v>
-      </c>
-      <c r="B75" t="s">
-        <v>270</v>
-      </c>
-      <c r="H75" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>272</v>
-      </c>
-      <c r="B76" t="s">
-        <v>273</v>
-      </c>
-      <c r="H76" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>275</v>
-      </c>
-      <c r="B77" t="s">
-        <v>276</v>
-      </c>
-      <c r="H77" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" t="s">
-        <v>277</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2703,15 +2110,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2744,13 +2145,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
         <v>71</v>
@@ -2759,24 +2160,24 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>280</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
